--- a/assets/Estimacion.xlsx
+++ b/assets/Estimacion.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="NESTOR ROJAS" refreshedDate="45758.348050810186" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="NESTOR ROJAS" refreshedDate="45759.927180092593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla2"/>
   </cacheSource>
@@ -212,12 +212,12 @@
   <r>
     <s v="Gestion de teatros"/>
     <n v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Gestion de salas"/>
     <n v="3"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Gestion de funciones"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -573,12 +573,12 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="15" width="18.7109375" customWidth="1"/>
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,11 +754,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f>GETPIVOTDATA("Estimacion en horas",$A$17,"Estado","No")/8</f>
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,11 +766,11 @@
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <f>GETPIVOTDATA("Estimacion en horas",$A$17,"Estado","Ok")/8</f>
-        <v>2.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/Estimacion.xlsx
+++ b/assets/Estimacion.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="NESTOR ROJAS" refreshedDate="45759.927180092593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="NESTOR ROJAS" refreshedDate="45760.927105902774" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla2"/>
   </cacheSource>
@@ -222,12 +222,12 @@
   <r>
     <s v="Gestion de funciones"/>
     <n v="4"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Reservas y Cancelaciones"/>
     <n v="5"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Dockerizacion de la solucion"/>
@@ -237,7 +237,7 @@
   <r>
     <s v="Reporte de funciones mas exitas del mes"/>
     <n v="5"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Pruebas de E2E"/>
@@ -247,7 +247,7 @@
   <r>
     <s v="Solucion de bugs"/>
     <n v="4"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -572,13 +572,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="15" width="18.7109375" customWidth="1"/>
@@ -680,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,11 +754,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <f>GETPIVOTDATA("Estimacion en horas",$A$17,"Estado","No")/8</f>
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,11 +766,11 @@
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <f>GETPIVOTDATA("Estimacion en horas",$A$17,"Estado","Ok")/8</f>
-        <v>3.125</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
